--- a/time/data.xlsx
+++ b/time/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Rdev\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55DAD6-0C08-44EA-A350-6CDD94DF60ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5395DE-9CF5-407B-A1F7-175FEB212387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF5E5BE5-356B-49BF-916E-73CD75081214}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{AF5E5BE5-356B-49BF-916E-73CD75081214}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="data_syria" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -77,6 +78,87 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>..2004-12-31</t>
+  </si>
+  <si>
+    <t>Abu Qilqil</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Tell Abu Jadha</t>
+  </si>
+  <si>
+    <t>2009-10-23:2016-06-26</t>
+  </si>
+  <si>
+    <t>Tell Akhtarin</t>
+  </si>
+  <si>
+    <t>Clearance (Unclassified)</t>
+  </si>
+  <si>
+    <t>Tell al-Bel</t>
+  </si>
+  <si>
+    <t>Tell Alsheykh Rih</t>
+  </si>
+  <si>
+    <t>2004-12-31:2009-05-16</t>
+  </si>
+  <si>
+    <t>2011-05-11:2013-04-28</t>
+  </si>
+  <si>
+    <t>2017-02-20:2018-01-29</t>
+  </si>
+  <si>
+    <t>Occupation/Continued Use</t>
+  </si>
+  <si>
+    <t>Tell Arshaf</t>
+  </si>
+  <si>
+    <t>2016-12-24:2017-04-20</t>
+  </si>
+  <si>
+    <t>Tell Baraghedeh</t>
+  </si>
+  <si>
+    <t>Tell Battal</t>
+  </si>
+  <si>
+    <t>2017-04-30:2018-10-07</t>
+  </si>
+  <si>
+    <t>2016-11-27:2017-04-30</t>
+  </si>
+  <si>
+    <t>2016-11-19:2016-11-27</t>
+  </si>
+  <si>
+    <t>Izaz</t>
+  </si>
+  <si>
+    <t>Manbij</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -438,7 +520,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +545,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -475,7 +557,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B26" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -487,7 +569,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -499,7 +581,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -511,7 +593,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -523,7 +605,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -535,7 +617,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -547,7 +629,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -559,7 +641,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -571,7 +653,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -583,7 +665,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -595,7 +677,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -607,7 +689,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -619,7 +701,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -631,7 +713,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -655,7 +737,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -667,7 +749,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -679,7 +761,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -691,7 +773,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -703,7 +785,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -715,7 +797,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -727,7 +809,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -739,7 +821,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -751,7 +833,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -762,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B4:B27" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <f t="shared" ref="B27" ca="1" si="1">RANDBETWEEN(1,10)</f>
         <v>9</v>
       </c>
       <c r="C27" t="s">
@@ -774,4 +856,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468EF56D-A147-432A-8424-A3101C886887}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/time/data.xlsx
+++ b/time/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Rdev\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5395DE-9CF5-407B-A1F7-175FEB212387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B131B-BB63-4B04-A626-04FDED8FD362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{AF5E5BE5-356B-49BF-916E-73CD75081214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF5E5BE5-356B-49BF-916E-73CD75081214}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
   <si>
     <t>date</t>
   </si>
@@ -159,6 +159,57 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>2016-12-24:2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-20:2017-04-20</t>
+  </si>
+  <si>
+    <t>2017-02-20:2018-02-07</t>
+  </si>
+  <si>
+    <t>2011-06-10:2015-06-30</t>
+  </si>
+  <si>
+    <t>2016-09-25:2016-11-27</t>
+  </si>
+  <si>
+    <t>Tell Dapiq</t>
+  </si>
+  <si>
+    <t>Tell Maled</t>
+  </si>
+  <si>
+    <t>Tell Sha'eer</t>
+  </si>
+  <si>
+    <t>Tell Soran</t>
+  </si>
+  <si>
+    <t>..2004-04-30</t>
+  </si>
+  <si>
+    <t>2016-03-29:2016-11-27</t>
+  </si>
+  <si>
+    <t>2009-05-16:2011-06-10</t>
+  </si>
+  <si>
+    <t>2011-06-10:2013-04-28</t>
+  </si>
+  <si>
+    <t>2013-04-28:2015-04-26</t>
+  </si>
+  <si>
+    <t>Excavation (Hand)</t>
+  </si>
+  <si>
+    <t>2011-06-10:2012-06-27</t>
+  </si>
+  <si>
+    <t>2012-06-27:2015-10-20</t>
   </si>
 </sst>
 </file>
@@ -519,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012CCEE3-5E81-478F-B0C7-CAF193A2C6F0}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +596,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -557,7 +608,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B26" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -569,7 +620,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -581,7 +632,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -593,7 +644,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -605,7 +656,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -617,7 +668,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -629,7 +680,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -641,7 +692,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -653,7 +704,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -677,7 +728,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -689,7 +740,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -701,7 +752,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -713,7 +764,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -725,7 +776,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -737,7 +788,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -749,7 +800,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -761,7 +812,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -773,7 +824,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -797,7 +848,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -809,7 +860,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -821,7 +872,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -833,7 +884,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -845,7 +896,7 @@
       </c>
       <c r="B27">
         <f t="shared" ref="B27" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -860,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468EF56D-A147-432A-8424-A3101C886887}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,6 +1266,363 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
